--- a/TestData/AutomationData.xlsx
+++ b/TestData/AutomationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Data3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -405,13 +406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -419,7 +420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -448,9 +449,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -461,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -472,7 +473,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -492,13 +493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A726" sqref="A726"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>

--- a/TestData/AutomationData.xlsx
+++ b/TestData/AutomationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Maven</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin1</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -492,15 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A726" sqref="A726"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>

--- a/TestData/AutomationData.xlsx
+++ b/TestData/AutomationData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Maven</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin1</t>
   </si>
 </sst>
 </file>
@@ -501,7 +498,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
